--- a/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/16_Lô 4-2023/50TB_TG102E-4G-ESIM_290224.xlsx
+++ b/2. Báo cáo-Bàn giao/1.BaoCao/Thông tin lưu trữ/SanXuat/Danh Sách IMEI nhập kho/16_Lô 4-2023/50TB_TG102E-4G-ESIM_290224.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\17.Lô 5-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\BH VNET\VNET NEW\VNET\2. Báo cáo-Bàn giao\1.BaoCao\Thông tin lưu trữ\SanXuat\Danh Sách IMEI nhập kho\16_Lô 4-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{497BFB48-62B5-4C6A-9080-D8B6628F8BCC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15825" yWindow="1980" windowWidth="12795" windowHeight="13545"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -335,8 +336,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +361,14 @@
     <font>
       <sz val="13"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="163"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="163"/>
@@ -401,7 +410,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -409,6 +418,9 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -690,11 +702,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B51"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -777,10 +789,10 @@
       </c>
     </row>
     <row r="10" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="5" t="s">
         <v>60</v>
       </c>
     </row>
